--- a/data/金砖四国汇率数据分析_BIS.xlsx
+++ b/data/金砖四国汇率数据分析_BIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/ProjectsFile/Research/EconomicAndFinance/MoneyMismatch/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Documents/Ethan/CoreFiles/CodesFile/MoneyMismatch/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E7449B-6F9D-644E-BADD-63C65B309FB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F955B915-5D6E-5D4F-AE0D-28E598DA1176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="1620" windowWidth="37660" windowHeight="21140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38640" yWindow="1620" windowWidth="37660" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中国" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,17 @@
     <sheet name="巴西" sheetId="7" r:id="rId3"/>
     <sheet name="俄罗斯" sheetId="8" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">印度!$B$2:$B$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">印度!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">印度!$E$2:$E$14</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>时点开始</t>
   </si>
@@ -151,9 +156,6 @@
     <t>1991-06-28</t>
   </si>
   <si>
-    <t>1991-07-10</t>
-  </si>
-  <si>
     <t>1992-03-02</t>
   </si>
   <si>
@@ -179,9 +181,6 @@
   </si>
   <si>
     <t>1991-06-27</t>
-  </si>
-  <si>
-    <t>1991-07-09</t>
   </si>
   <si>
     <t>1992-03-01</t>
@@ -302,6 +301,15 @@
   </si>
   <si>
     <t>变化率样本方差</t>
+  </si>
+  <si>
+    <t>2000-05-31</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -928,9 +936,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -944,24 +952,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -969,10 +983,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$G$2:$G$12</c:f>
+              <c:f>印度!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2.7889470501857171E-3</c:v>
                 </c:pt>
@@ -983,27 +997,33 @@
                   <c:v>3.885814351664971E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5840857142857148</c:v>
+                  <c:v>0.11216362541073384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0623692381179807E-2</c:v>
+                  <c:v>6.3720481927710848E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3720481927710848E-2</c:v>
+                  <c:v>4.7885737465180921E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7885737465180921E-3</c:v>
+                  <c:v>1.9944507884435924E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4144640926165299E-2</c:v>
+                  <c:v>3.1324967374460798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5.3381533458105599E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7507161280220577E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.8090306744517573E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>8.4859079251026454E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>7.7699859579115793E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1317,9 +1337,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -1333,24 +1353,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -1358,10 +1384,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$H$2:$H$12</c:f>
+              <c:f>印度!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.8030430949621197E-4</c:v>
                 </c:pt>
@@ -1372,27 +1398,33 @@
                   <c:v>3.7786603013949727E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6981656179567191E-2</c:v>
+                  <c:v>1.7715614104397552E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8470778169216582E-4</c:v>
+                  <c:v>9.188360777540002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.188360777540002E-4</c:v>
+                  <c:v>-1.7989651495284838E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7989651495284838E-4</c:v>
+                  <c:v>1.8794245319481663E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6177734484810105E-4</c:v>
+                  <c:v>4.6430758268714475E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1.292910285528079E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.628189024041784E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-1.411418236306173E-4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>3.3544396218652983E-4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.9181957226619353E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1737,9 +1769,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -1753,24 +1785,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -1778,10 +1816,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$I$2:$I$12</c:f>
+              <c:f>印度!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4.4947803644444884E-5</c:v>
                 </c:pt>
@@ -1792,27 +1830,33 @@
                   <c:v>2.0454950309581723E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0854652357911166E-3</c:v>
+                  <c:v>2.0606786813294998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4707763632647138E-5</c:v>
+                  <c:v>7.3823709338394162E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3823709338394162E-5</c:v>
+                  <c:v>4.5944012527111378E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5944012527111378E-6</c:v>
+                  <c:v>1.6274058060893614E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6752146870880276E-6</c:v>
+                  <c:v>2.0151673116819987E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.8437087326270419E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6640152094795624E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.4971770955249774E-6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>3.7810489566467883E-5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2.2599830370093288E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8846,9 +8890,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -8862,24 +8906,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -8887,10 +8937,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$D$2:$D$12</c:f>
+              <c:f>印度!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7.9455735294117646</c:v>
                 </c:pt>
@@ -8901,27 +8951,33 @@
                   <c:v>12.41001387443635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.061250000000001</c:v>
+                  <c:v>25.760421686746987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.846540880503145</c:v>
+                  <c:v>28.71584</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.71584</c:v>
+                  <c:v>31.518558333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.518558333333335</c:v>
+                  <c:v>33.914163487738421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.345365023919427</c:v>
+                  <c:v>39.849182058047496</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>43.290658008379886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.163992108196723</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43.965997211295033</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>45.889126588693955</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>58.908046465277778</c:v>
                 </c:pt>
               </c:numCache>
@@ -9266,9 +9322,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -9282,24 +9338,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -9307,10 +9369,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$E$2:$E$12</c:f>
+              <c:f>印度!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.12783383847353377</c:v>
                 </c:pt>
@@ -9321,27 +9383,33 @@
                   <c:v>10.486096807579814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9626125000000023</c:v>
+                  <c:v>0.37672891201168324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9969604330865386E-2</c:v>
+                  <c:v>0.27042037590361445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27042037590361445</c:v>
+                  <c:v>3.9285807172701831E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9285807172701831E-2</c:v>
+                  <c:v>4.1212156512707656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.818038523366745</c:v>
+                  <c:v>6.5959597048624214</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.21187554319447346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4130231533019015</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.0012440271919782</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>13.190103412778269</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>70.101888096157339</c:v>
                 </c:pt>
               </c:numCache>
@@ -9655,9 +9723,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>印度!$B$2:$B$12</c:f>
+              <c:f>印度!$B$2:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1973-01-02</c:v>
                 </c:pt>
@@ -9671,24 +9739,30 @@
                   <c:v>1991-06-28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1991-07-10</c:v>
+                  <c:v>1992-03-02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992-03-02</c:v>
+                  <c:v>1993-03-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1993-03-01</c:v>
+                  <c:v>1994-08-01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994-08-01</c:v>
+                  <c:v>1997-07-01</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1999-01-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000-06-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2004-01-02</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>2008-01-02</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2010-01-04</c:v>
                 </c:pt>
               </c:strCache>
@@ -9696,10 +9770,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>印度!$F$2:$F$12</c:f>
+              <c:f>印度!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.3362701908957418E-3</c:v>
                 </c:pt>
@@ -9710,27 +9784,33 @@
                   <c:v>5.2341311134235175E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5950000000000002</c:v>
+                  <c:v>4.0783132530120482E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2452830188679225E-2</c:v>
+                  <c:v>2.5999999999999985E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5999999999999985E-2</c:v>
+                  <c:v>-5.9083333333333305E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.9083333333333305E-3</c:v>
+                  <c:v>6.0313351498637547E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9708950902224098E-3</c:v>
+                  <c:v>1.7757255936675473E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>5.5737541899441361E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1249136612021882E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-6.1814401168451827E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1.3511218323586744E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1.0365120225694448E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -23169,15 +23249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>247745</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>374745</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23208,13 +23288,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23246,13 +23326,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23284,13 +23364,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23322,13 +23402,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23360,13 +23440,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24185,22 +24265,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -24560,10 +24640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5634B652-5924-944D-B566-42E619FECB77}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="134" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -24585,22 +24665,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -24611,7 +24691,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>7.9455735294117646</v>
@@ -24640,7 +24720,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>8.5497474275023393</v>
@@ -24669,7 +24749,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>12.41001387443635</v>
@@ -24698,25 +24778,25 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>24.061250000000001</v>
+        <v>25.760421686746987</v>
       </c>
       <c r="E5">
-        <v>4.9626125000000023</v>
+        <v>0.37672891201168324</v>
       </c>
       <c r="F5">
-        <v>0.5950000000000002</v>
+        <v>4.0783132530120482E-2</v>
       </c>
       <c r="G5">
-        <v>1.5840857142857148</v>
+        <v>0.11216362541073384</v>
       </c>
       <c r="H5">
-        <v>2.6981656179567191E-2</v>
+        <v>1.7715614104397552E-3</v>
       </c>
       <c r="I5">
-        <v>3.0854652357911166E-3</v>
+        <v>2.0606786813294998E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -24727,25 +24807,25 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>25.846540880503145</v>
+        <v>28.71584</v>
       </c>
       <c r="E6">
-        <v>1.9969604330865386E-2</v>
+        <v>0.27042037590361445</v>
       </c>
       <c r="F6">
-        <v>1.2452830188679225E-2</v>
+        <v>2.5999999999999985E-2</v>
       </c>
       <c r="G6">
-        <v>3.0623692381179807E-2</v>
+        <v>6.3720481927710848E-2</v>
       </c>
       <c r="H6">
-        <v>4.8470778169216582E-4</v>
+        <v>9.188360777540002E-4</v>
       </c>
       <c r="I6">
-        <v>4.4707763632647138E-5</v>
+        <v>7.3823709338394162E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -24756,25 +24836,25 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>28.71584</v>
+        <v>31.518558333333335</v>
       </c>
       <c r="E7">
-        <v>0.27042037590361445</v>
+        <v>3.9285807172701831E-2</v>
       </c>
       <c r="F7">
-        <v>2.5999999999999985E-2</v>
+        <v>-5.9083333333333305E-3</v>
       </c>
       <c r="G7">
-        <v>6.3720481927710848E-2</v>
+        <v>4.7885737465180921E-3</v>
       </c>
       <c r="H7">
-        <v>9.188360777540002E-4</v>
+        <v>-1.7989651495284838E-4</v>
       </c>
       <c r="I7">
-        <v>7.3823709338394162E-5</v>
+        <v>4.5944012527111378E-6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -24785,25 +24865,25 @@
         <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>31.518558333333335</v>
+        <v>33.914163487738421</v>
       </c>
       <c r="E8">
-        <v>3.9285807172701831E-2</v>
+        <v>4.1212156512707656</v>
       </c>
       <c r="F8">
-        <v>-5.9083333333333305E-3</v>
+        <v>6.0313351498637547E-3</v>
       </c>
       <c r="G8">
-        <v>4.7885737465180921E-3</v>
+        <v>1.9944507884435924E-2</v>
       </c>
       <c r="H8">
-        <v>-1.7989651495284838E-4</v>
+        <v>1.8794245319481663E-4</v>
       </c>
       <c r="I8">
-        <v>4.5944012527111378E-6</v>
+        <v>1.6274058060893614E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -24811,28 +24891,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>41.345365023919427</v>
+        <v>39.849182058047496</v>
       </c>
       <c r="E9">
-        <v>33.818038523366745</v>
+        <v>6.5959597048624214</v>
       </c>
       <c r="F9">
-        <v>5.9708950902224098E-3</v>
+        <v>1.7757255936675473E-2</v>
       </c>
       <c r="G9">
-        <v>1.4144640926165299E-2</v>
+        <v>3.1324967374460798E-2</v>
       </c>
       <c r="H9">
-        <v>1.6177734484810105E-4</v>
+        <v>4.6430758268714475E-4</v>
       </c>
       <c r="I9">
-        <v>9.6752146870880276E-6</v>
+        <v>2.0151673116819987E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -24840,28 +24920,28 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>43.965997211295033</v>
+        <v>43.290658008379886</v>
       </c>
       <c r="E10">
-        <v>4.0012440271919782</v>
+        <v>0.21187554319447346</v>
       </c>
       <c r="F10">
-        <v>-6.1814401168451827E-3</v>
+        <v>5.5737541899441361E-3</v>
       </c>
       <c r="G10">
-        <v>1.8090306744517573E-2</v>
+        <v>5.3381533458105599E-3</v>
       </c>
       <c r="H10">
-        <v>-1.411418236306173E-4</v>
+        <v>1.292910285528079E-4</v>
       </c>
       <c r="I10">
-        <v>9.4971770955249774E-6</v>
+        <v>2.8437087326270419E-6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -24869,28 +24949,28 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>45.889126588693955</v>
+        <v>47.163992108196723</v>
       </c>
       <c r="E11">
-        <v>13.190103412778269</v>
+        <v>1.4130231533019015</v>
       </c>
       <c r="F11">
-        <v>1.3511218323586744E-2</v>
+        <v>1.1249136612021882E-3</v>
       </c>
       <c r="G11">
-        <v>8.4859079251026454E-2</v>
+        <v>5.7507161280220577E-3</v>
       </c>
       <c r="H11">
-        <v>3.3544396218652983E-4</v>
+        <v>2.628189024041784E-5</v>
       </c>
       <c r="I11">
-        <v>3.7810489566467883E-5</v>
+        <v>2.6640152094795624E-6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -24898,27 +24978,85 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>43.965997211295033</v>
+      </c>
+      <c r="E12">
+        <v>4.0012440271919782</v>
+      </c>
+      <c r="F12">
+        <v>-6.1814401168451827E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.8090306744517573E-2</v>
+      </c>
+      <c r="H12">
+        <v>-1.411418236306173E-4</v>
+      </c>
+      <c r="I12">
+        <v>9.4971770955249774E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>45.889126588693955</v>
+      </c>
+      <c r="E13">
+        <v>13.190103412778269</v>
+      </c>
+      <c r="F13">
+        <v>1.3511218323586744E-2</v>
+      </c>
+      <c r="G13">
+        <v>8.4859079251026454E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.3544396218652983E-4</v>
+      </c>
+      <c r="I13">
+        <v>3.7810489566467883E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>58.908046465277778</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>70.101888096157339</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>1.0365120225694448E-2</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>7.7699859579115793E-2</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>1.9181957226619353E-4</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>2.2599830370093288E-5</v>
       </c>
     </row>
@@ -24956,22 +25094,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -24979,10 +25117,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>5.0529356025352114E-5</v>
@@ -25008,10 +25146,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>0.10915407928547491</v>
@@ -25037,10 +25175,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>1.029466</v>
@@ -25066,10 +25204,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>2.3732482229848695</v>
@@ -25095,10 +25233,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>1.6213420389873818</v>
@@ -25124,10 +25262,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>2.2073386797832804</v>
@@ -25153,7 +25291,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -25188,7 +25326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4028BAFE-FE72-9A41-8D36-69EEC9139129}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="H9" zoomScale="143" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -25211,22 +25349,22 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -25234,10 +25372,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>1.8553255031847133</v>
@@ -25263,10 +25401,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>5.4294217391304347</v>
@@ -25292,10 +25430,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>10.134944444444445</v>
@@ -25321,10 +25459,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>25.222027993277312</v>
@@ -25350,10 +25488,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>29.627023179894181</v>
@@ -25379,10 +25517,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>25.808154304878048</v>
@@ -25408,10 +25546,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>29.401718678921569</v>
@@ -25437,10 +25575,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>31.666344918138041</v>
@@ -25466,7 +25604,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
